--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,81 +545,6 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +530,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,81 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,38 +435,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25.5703125" customWidth="1" min="1" max="1"/>
+    <col width="30.85546875" customWidth="1" min="2" max="2"/>
+    <col width="35.85546875" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="28.28515625" customWidth="1" min="6" max="6"/>
+    <col width="28.85546875" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ressources</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Nom du prof</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nombre d'heure de CM</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Nombre d'heure de TD</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure de TP Dedoubles</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Nombre d'heure de TP Non Dedoubles</t>
+          <t>Nombre d'heure de TP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -473,76 +492,3089 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
+          <t>R1.01 Initiation au développement</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>304</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
+          <t>R1.01 Initiation au développement</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+          <t>R1.01 Initiation au développement</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>148</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R1.02 Développement d'interfaces web</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>R1.03 Introduction à l'architecture des ordinateurs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>R1.04 Introduction aux systèmes d'exploitation, à leur fonctionnement</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>R1.05 Introduction aux bases de données et SQL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>R1.07 Outils mathématiques fondamentaux</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>R1.08 Introduction à la gestion des organisations</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>R1.09 Introduction à l'économie durable et numérique</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R1.10 Anglais technique</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R1.11 Bases de la communication</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>R1.12 PPP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R1.L.1 Méthodologie du travail universitaire</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R2.01 Développement orienté objet</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R2.02 Développement d'applications avec IHM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R2.03 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R2.04 Communication et fonctionnement bas niveau</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R2.05 Introduction aux services réseaux</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R2.06 Exploitation d'une base de données</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R2.07 Graphes</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R2.08 Outils numériques pour les statistiques descriptives</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R2.09 Méthodes numériques</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R2.10 Introduction à la gestion des systèmes d'information</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R2.11 Introduction au droit</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R2.12 Anglais d'entreprise</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>R2.13 Communication avec le milieu professionnel</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>R2.14 PPP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R3.01 Développement Web</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R3.02 Développement efficace</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R3.03 Analyse</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R3.04 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R3.05 Programmation système</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R3.06 Architecture des réseaux</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R3.07 SQL dans un langage de pr</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R3.08 Probabilités</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R3.09 Cryptographie et sécurité</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R3.10 Management des systèmes d</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R3.11 Droit des contrats et du </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R3.12 Anglais</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R3.13 Communication professionn</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R3.14 PPP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R3.01 Développement Web</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R3.02 Développement efficace</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R3.03 Analyse</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R3.04 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>R3.05 Programmation système</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>R3.06 Architecture des réseaux</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>R3.07 SQL dans un langage de pr</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>R3.08 Probabilités</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>R3.09 Cryptographie et sécurité</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>R3.10 Management des systèmes d</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R3.11 Droit des contrats et du </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>R3.12 Anglais</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>R3.13 Communication professionn</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>R3.14 PPP</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R3.A.L1 Introduction IA-1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R3.01 Développement Web</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R3.02 Développement efficace</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R3.03 Analyse</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R3.04 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R3.05 Programmation système</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R3.06 Architecture des réseaux</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R3.07 SQL dans un langage de pr</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R3.08 Probabilités</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R3.09 Cryptographie et sécurité</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R3.10 Management des systèmes d</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R3.11 Droit des contrats et du </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R3.12 Anglais</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R3.13 Communication professionn</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R3.14 PPP</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R3.01 Développement Web</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>R3.02 Développement efficace</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>R3.03 Analyse</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>R3.04 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>R3.05 Programmation système</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>R3.06 Architecture des réseaux</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>R3.07 SQL dans un langage de pr</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>R3.08 Probabilités</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>R3.09 Cryptographie et sécurité</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>R3.10 Management des systèmes d</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R3.11 Droit des contrats et du </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R3.12 Anglais</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R3.13 Communication professionn</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R3.14 PPP</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R3.B.L1 Compléments cryptograph</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R4.01 Architecture logicielle</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R4.02 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R4.03 Qualité et au-delà du rel</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R4.04 Méthodes d'optimisation</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R4.05 Communicaton professionne</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R4.06 Communication dans les or</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R4.07 PPP</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R4.A.08 Virtualisation</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R4.A.09 Management avancé des s</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R4.A.10 Compléments Web</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R4.A.11 Développement pour appl</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R4.A.12 Automates et langages</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R4.01 Architecture logicielle</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R4.02 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R4.03 Qualité et au-delà du rel</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R4.04 Méthodes d'optimisation</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R4.05 Communicaton professionne</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R4.06 Communication dans les or</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R4.07 PPP</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R4.A.08 Virtualisation</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R4.A.09 Management avancé des s</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R4.A.10 Compléments Web</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R4.A.11 Développement pour appl</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R4.A.12 Automates et langages</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R4.A.L1 Introduction IA-2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R4.01 Architecture logicielle</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R4.02 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>R4.03 Qualité et au-delà du rel</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>R4.04 Méthodes d'optimisation</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>R4.05 Communicaton professionne</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>R4.06 Communication dans les or</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>R4.07 PPP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>R4.B.08 Virtualisation</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>R4.B.09 Management avancé des s</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>R4.B.10 Cryptographie et sécuri</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>R4.B.11 Réseau avancé</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>R4.B.12 Sécurité système et rés</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>R4.01 Architecture logicielle</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>R4.02 Qualité de développement</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>R4.03 Qualité et au-delà du rel</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>R4.04 Méthodes d'optimisation</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>R4.05 Communicaton professionne</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>R4.06 Communication dans les or</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>R4.07 PPP</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>R4.B.08 Virtualisation</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>R4.B.09 Management avancé des s</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>R4.B.10 Cryptographie et sécuri</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>R4.B.11 Réseau avancé</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>R4.B.12 Sécurité système et rés</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>R4.B.L1 Introduction IA-1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R5.01 Initiation au management </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>R5.02 PPP</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>R5.03 Stratégies de communicati</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>R5.A.04 Qualité algorithmique</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>R5.A.05 Programmation avancée</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>R5.A.06 Sensibilisation à la pr</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>R5.A.07 Automatisation de la ch</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>R5.A.08 Qualité de développemen</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>R5.A.09 Virtualisation avancée</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R5.A.10 Nouveaux paradigmes de </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>R5.A.11 Méthodes d'optimisation</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>R5.A.12 Modélisation mathématiq</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>R5.A.13 Economie durable et num</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>R5.A.14 Anglais de spécialité</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R5.01 Initiation au management </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>R5.02 PPP</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>R5.03 Stratégies de communicati</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>R5.A.04 Qualité algorithmique</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>R5.A.05 Programmation avancée</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>R5.A.06 Sensibilisation à la pr</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>R5.A.07 Automatisation de la ch</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>R5.A.08 Qualité de développemen</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>R5.A.09 Virtualisation avancée</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R5.A.10 Nouveaux paradigmes de </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>R5.A.11 Méthodes d'optimisation</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>R5.A.12 Modélisation mathématiq</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>R5.A.13 Economie durable et num</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>R5.A.14 Anglais de spécialité</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R5.A.L1 Compléments IA</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R5.01 Initiation au management </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R5.02 PPP</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>R5.03 Stratégies de communicati</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>R5.B.04 Programmation avancée e</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>R5.B.05 Automatisation de la ch</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R5.B.06 Installation, configura</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>R5.B.07 Virtualisation avancée</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R5.B.08 Continuité de service</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R5.B.09 Cybersécurité</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R5.B.10 Modélisation mathématiq</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>R5.B.11 Economie durable et num</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>R5.B.12 Anglais de spécialité</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R5.01 Initiation au management </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>R5.02 PPP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>R5.03 Stratégies de communicati</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>R6.01 Initiation à l'entreprena</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R6.02 Droit du numérique et de </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>R6.03 Communication   organisat</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>R6.04 PPP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>R6.A.05 Développement avancé</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>R6.A.06 Maintenance applicative</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>R6.01 Initiation à l'entrprenar</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R6.02 Droit du numérique et de </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>R6.03 Communication   organisat</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>R6.04 PPP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>R6.A.05 Développement avancé</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>R6.A.06 Maintenance applicative</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>R6.01 Initiation à l'entrprenar</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R6.02 Droit du numérique et de </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>R6.03 Communication   organisat</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>R6.04 PPP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>R6.B.05 Optimisation des servic</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>R6.B.06 Cloud computing</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>R6.01 Initiation à l'entrprenar</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R6.02 Droit du numérique et de </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R6.03 Communication   organisat</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>R6.04 PPP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>R6.B.05 Optimisation des servic</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>R6.B.06 Cloud computing</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,149 +473,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>116</v>
-      </c>
-      <c r="E2" t="n">
-        <v>232</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58</v>
-      </c>
-      <c r="E3" t="n">
-        <v>116</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58</v>
-      </c>
-      <c r="E4" t="n">
-        <v>116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Christian Lakhal</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48</v>
-      </c>
-      <c r="E5" t="n">
-        <v>64</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Moundir Boix</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alain Pioct</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0</v>
       </c>
@@ -623,74 +563,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lucas Morancey</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Morgan casali</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
+          <t>R4.B.08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lotfi Jouini</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.B.09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
@@ -698,51 +608,3200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Safa Jouini</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.B.10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lucile Maksoud</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>R4.B.11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R4.B.12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>R4.B.L1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R5.A.04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R5.A.05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R5.A.06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R5.A.07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R5.A.08</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R5.A.09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R5.A.10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R5.A.11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>R5.A.12</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R5.A.13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R5.A.14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>R4.A.08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>R4.A.09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>R4.A.10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>R4.A.11</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>R4.A.12</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R3.A.L1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>R6.A.05</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>R6.A.06</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
+        <v>40</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>20</v>
+      </c>
+      <c r="E80" t="n">
+        <v>40</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>40</v>
+      </c>
+      <c r="E81" t="n">
+        <v>80</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>R2.02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MORGAN CASALI</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>40</v>
+      </c>
+      <c r="E82" t="n">
+        <v>32</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>R2.02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R2.03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LOTFI JOUINI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R2.03</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R2.04</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SAFA JOUINI</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>24</v>
+      </c>
+      <c r="E86" t="n">
+        <v>32</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R2.04</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R2.05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LUCILE MAKSOUD</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D88" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E88" t="n">
+        <v>18</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R2.05</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R2.06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R2.07</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R2.08</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R2.09</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R2.10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R2.11</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R2.12</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R2.13</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R2.14</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R6.B.05</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R6.B.06</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R4.B.08</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R4.B.09</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R4.B.10</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>R4.B.11</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>R4.B.12</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>R5.A.04</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>R5.A.05</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>R5.A.06</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>R5.A.07</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>R5.A.08</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>R5.A.09</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>R5.A.10</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>R5.A.11</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>R5.A.12</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>R5.A.13</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>R5.A.14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>R5.A.L1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>R3.B.L1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>R4.A.08</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>R4.A.09</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>R4.A.10</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>R4.A.11</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>R4.A.12</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>R4.A.L1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>18</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="D160" t="n">
+        <v>30</v>
+      </c>
+      <c r="E160" t="n">
+        <v>76</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>30</v>
+      </c>
+      <c r="E161" t="n">
+        <v>76</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>60</v>
+      </c>
+      <c r="E162" t="n">
+        <v>152</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>R1.02</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CHRISTIAN LAKHAL</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>40</v>
+      <c r="E163" t="n">
+        <v>64</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>R1.02</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>R1.03</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MOUNDIR BOIX</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R1.03</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>R1.04</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ALAIN PIOCT</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R1.04</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>R1.05</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LUCAS MORANCEY</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>10</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12</v>
+      </c>
+      <c r="E169" t="n">
+        <v>16</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>R1.05</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>R1.07</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R1.08</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>R1.09</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R1.10</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R1.11</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R1.12</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>R1.L.1</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>R5.B.04</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>R5.B.05</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>R5.B.06</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>R5.B.07</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>R5.B.08</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>R5.B.09</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>R5.B.10</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R5.B.11</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>R5.B.12</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>R6.A.05</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>R6.A.06</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>R6.B.05</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>R6.B.06</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,99 +473,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>116</v>
-      </c>
-      <c r="E2" t="n">
-        <v>232</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58</v>
-      </c>
-      <c r="E3" t="n">
-        <v>116</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58</v>
-      </c>
-      <c r="E4" t="n">
-        <v>116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0</v>
       </c>
@@ -573,74 +533,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Christian Lakhal</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48</v>
-      </c>
-      <c r="E6" t="n">
-        <v>64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Moundir Boix</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alain Pioct</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -648,74 +578,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lucas Morancey</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
+          <t>R4.B.08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Morgan casali</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>24</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
+          <t>R4.B.09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lotfi Jouini</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+          <t>R4.B.10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -723,51 +623,3185 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Safa Jouini</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24</v>
-      </c>
-      <c r="E12" t="n">
-        <v>32</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
+          <t>R4.B.11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lucile Maksoud</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+          <t>R4.B.12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>R4.B.L1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R5.A.04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R5.A.05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R5.A.06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R5.A.07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R5.A.08</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R5.A.09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R5.A.10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R5.A.11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>R5.A.12</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R5.A.13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R5.A.14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>R4.A.08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>R4.A.09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>R4.A.10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>R4.A.11</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>R4.A.12</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R3.A.L1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>R6.A.05</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>R6.A.06</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
+        <v>40</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>20</v>
+      </c>
+      <c r="E80" t="n">
+        <v>40</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>40</v>
+      </c>
+      <c r="E81" t="n">
+        <v>80</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>R2.02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MORGAN CASALI</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>40</v>
+      </c>
+      <c r="E82" t="n">
+        <v>32</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>R2.02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R2.03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LOTFI JOUINI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R2.03</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R2.04</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SAFA JOUINI</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>24</v>
+      </c>
+      <c r="E86" t="n">
+        <v>32</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R2.04</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R2.05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LUCILE MAKSOUD</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D88" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E88" t="n">
+        <v>18</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R2.05</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R2.06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R2.07</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R2.08</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R2.09</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R2.10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R2.11</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R2.12</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R2.13</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R2.14</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R6.B.05</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R6.B.06</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R4.B.08</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R4.B.09</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R4.B.10</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>R4.B.11</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>R4.B.12</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>R5.A.04</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>R5.A.05</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>R5.A.06</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>R5.A.07</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>R5.A.08</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>R5.A.09</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>R5.A.10</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>R5.A.11</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>R5.A.12</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>R5.A.13</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>R5.A.14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>R5.A.L1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>R3.B.L1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>R4.01</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>R4.02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>R4.03</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>R4.04</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>R4.05</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>R4.06</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>R4.07</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>R4.A.08</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>R4.A.09</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>R4.A.10</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>R4.A.11</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>R4.A.12</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>R4.A.L1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
-        <v>18</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D160" t="n">
+        <v>30</v>
+      </c>
+      <c r="E160" t="n">
+        <v>76</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>30</v>
+      </c>
+      <c r="E161" t="n">
+        <v>76</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>60</v>
+      </c>
+      <c r="E162" t="n">
+        <v>152</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>R1.02</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CHRISTIAN LAKHAL</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
-        <v>40</v>
+      <c r="E163" t="n">
+        <v>64</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>R1.02</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>R1.03</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MOUNDIR BOIX</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R1.03</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>R1.04</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ALAIN PIOCT</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R1.04</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>R1.05</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LUCAS MORANCEY</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>10</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12</v>
+      </c>
+      <c r="E169" t="n">
+        <v>16</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>R1.05</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>R1.07</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R1.08</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>R1.09</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R1.10</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R1.11</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R1.12</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>R1.L.1</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>R3.01</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>R3.02</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>R3.03</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>R3.04</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>R3.05</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>R3.06</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>R3.07</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>R3.08</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>R3.09</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>R3.10</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>R3.11</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>R3.12</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>R3.13</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>R3.14</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>R5.01</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>R5.02</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>R5.03</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>R5.B.04</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>R5.B.05</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>R5.B.06</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>R5.B.07</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>R5.B.08</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>R5.B.09</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>R5.B.10</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R5.B.11</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>R5.B.12</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>R6.A.05</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>R6.A.06</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>R6.01</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>R6.02</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>R6.03</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>R6.04</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>R6.B.05</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>R6.B.06</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Horaires" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,15 +48,20 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A4:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,316 +435,354 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nom du prof</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure de CM</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure de TD</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure de TP Dedoubles</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure de TP Non Dedoubles</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure de test</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre d'heure total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>116</v>
-      </c>
-      <c r="E2" t="n">
-        <v>232</v>
-      </c>
-      <c r="F2" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>R2.01</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>R1.01</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>MORGAN CASALI</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>R2.02</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58</v>
-      </c>
-      <c r="E3" t="n">
-        <v>116</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>LOTFI JOUINI</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>R2.03</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>SAFA JOUINI</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>R2.04</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>LUCILE MAKSOUD</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>R2.05</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>CHRISTIAN LAKHAL</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>R1.02</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>MOUNDIR BOIX</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>R1.03</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58</v>
-      </c>
-      <c r="E4" t="n">
-        <v>116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Christian Lakhal</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48</v>
-      </c>
-      <c r="E5" t="n">
-        <v>64</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Moundir Boix</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Alain Pioct</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lucas Morancey</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>ALAIN PIOCT</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>R1.04</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>LUCAS MORANCEY</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>R1.05</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D37" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E37" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Morgan casali</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lotfi Jouini</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Safa Jouini</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lucile Maksoud</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" t="n">
-        <v>18</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>40</v>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
+++ b/SAE_3_01/fichiers genere/Professeurs_Horaires.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:G37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,6 +435,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOM DU PROF</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>RESSOURCES</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRE D'HEURE DE CM</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRE D'HEURE DE TD</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRE D'HEURE DE TP</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRE D'HEURE TOTAL</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
